--- a/scenarios_and_results/Scenario_low_discount_bio_A_par_DAChigh3_biohigh4.xlsx
+++ b/scenarios_and_results/Scenario_low_discount_bio_A_par_DAChigh3_biohigh4.xlsx
@@ -1721,13 +1721,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.0006162929891835535</v>
       </c>
       <c r="K9">
         <v>0.0003070323379139816</v>
       </c>
       <c r="L9">
-        <v>0.0003070323379139816</v>
+        <v>0.0009233253270975351</v>
       </c>
       <c r="M9">
         <v>0.0006498519866228071</v>
@@ -1739,7 +1739,7 @@
         <v>0.09840780061345562</v>
       </c>
       <c r="P9">
-        <v>9.723663353634089</v>
+        <v>15.98630701949898</v>
       </c>
       <c r="Q9">
         <v>0.8863403688118109</v>
@@ -1760,7 +1760,7 @@
         <v>15.98630701949858</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>6.262643665864896</v>
       </c>
       <c r="X9">
         <v>3.120000000000001</v>
@@ -1798,13 +1798,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.0003004558564152599</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.0003004558564152599</v>
       </c>
       <c r="M10">
         <v>0.0009347424587805056</v>
@@ -1816,7 +1816,7 @@
         <v>0.006889657955423386</v>
       </c>
       <c r="P10">
-        <v>135.6732750491187</v>
+        <v>179.2829663225073</v>
       </c>
       <c r="Q10">
         <v>0.1366870574982163</v>
@@ -1837,7 +1837,7 @@
         <v>179.2829663225814</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>43.60969127338864</v>
       </c>
       <c r="X10">
         <v>0</v>
